--- a/Test/MC_Ssf/T1/Sensors_data_1000009.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000009.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1679524714432075</v>
+        <v>0.8628098403853404</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0247484152446042</v>
+        <v>0.004080583044944866</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9363075692624646</v>
+        <v>-0.01134385054493103</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.2778411415806719</v>
+        <v>0.9887615469976958</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04368681361824112</v>
+        <v>0.000384220061236799</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996170011109907</v>
+        <v>-0.03136209904508958</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1538538162346643</v>
+        <v>-0.6180344088667353</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02505488279716703</v>
+        <v>0.04791094405878983</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2763620423636096</v>
+        <v>0.2678593310819182</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.1377345419768508</v>
+        <v>0.9321257701795811</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0335049389164371</v>
+        <v>0.001998815927819144</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3087952185250855</v>
+        <v>0.1324279176326339</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
